--- a/wendi_pass1/i1s45814075.xlsx
+++ b/wendi_pass1/i1s45814075.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Projects\MECH2100-A2\wendi_pass1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B90F648-D3A5-4D32-A717-D49DDB7D9408}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD76536-1B65-46B0-8901-F766D33F0F0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9984" yWindow="1692" windowWidth="17136" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/wendi_pass1/i1s45814075.xlsx
+++ b/wendi_pass1/i1s45814075.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Projects\MECH2100-A2\wendi_pass1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD76536-1B65-46B0-8901-F766D33F0F0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D857A82-75B8-4D07-A5F0-F0C20D5049E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9984" yWindow="1692" windowWidth="17136" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="18432" windowHeight="10128" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1257,13 +1257,13 @@
         <v>49</v>
       </c>
       <c r="F25" s="11">
-        <v>-58912.414131024467</v>
+        <v>-65096.590200027022</v>
       </c>
       <c r="G25" s="11">
-        <v>-31006.533753170774</v>
+        <v>-34261.363263172119</v>
       </c>
       <c r="H25" s="11">
-        <v>-91469.274571853763</v>
+        <v>-101071.02162635775</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="2" t="s">
@@ -1663,13 +1663,13 @@
         <v>94</v>
       </c>
       <c r="F62" s="11">
-        <v>132552.93179480504</v>
+        <v>146467.3279500608</v>
       </c>
       <c r="G62" s="11">
-        <v>69764.700944634242</v>
+        <v>77088.067342137263</v>
       </c>
       <c r="H62" s="11">
-        <v>205805.86778667098</v>
+        <v>227409.79865930491</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>95</v>
@@ -1689,13 +1689,13 @@
         <v>94</v>
       </c>
       <c r="F63" s="11">
-        <v>79531.759076883027</v>
+        <v>87880.396770036488</v>
       </c>
       <c r="G63" s="11">
-        <v>41858.820566780545</v>
+        <v>46252.840405282361</v>
       </c>
       <c r="H63" s="11">
-        <v>123483.52067200259</v>
+        <v>136445.87919558294</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>95</v>
@@ -1715,13 +1715,13 @@
         <v>94</v>
       </c>
       <c r="F64" s="11">
-        <v>26510.586358961009</v>
+        <v>29293.465590012165</v>
       </c>
       <c r="G64" s="11">
-        <v>13952.940188926852</v>
+        <v>15417.613468427455</v>
       </c>
       <c r="H64" s="11">
-        <v>41161.173557334201</v>
+        <v>45481.959731860974</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>95</v>
@@ -1741,13 +1741,13 @@
         <v>94</v>
       </c>
       <c r="F65" s="11">
-        <v>-106042.34543584404</v>
+        <v>-117173.86236004865</v>
       </c>
       <c r="G65" s="11">
-        <v>-55811.760755707393</v>
+        <v>-61670.453873709812</v>
       </c>
       <c r="H65" s="11">
-        <v>-164644.69422933678</v>
+        <v>-181927.83892744393</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>95</v>
@@ -1767,13 +1767,13 @@
         <v>94</v>
       </c>
       <c r="F66" s="11">
-        <v>-53021.172717922018</v>
+        <v>-58586.931180024323</v>
       </c>
       <c r="G66" s="11">
-        <v>-27905.8803778537</v>
+        <v>-30835.226936854906</v>
       </c>
       <c r="H66" s="11">
-        <v>-82322.347114668388</v>
+        <v>-90963.919463721963</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>95</v>
@@ -1819,13 +1819,13 @@
         <v>94</v>
       </c>
       <c r="F68" s="11">
-        <v>29456.207065512233</v>
+        <v>32548.295100013511</v>
       </c>
       <c r="G68" s="11">
-        <v>15503.266876585387</v>
+        <v>17130.68163158606</v>
       </c>
       <c r="H68" s="11">
-        <v>45734.637285926881</v>
+        <v>50535.510813178873</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>95</v>
@@ -1845,13 +1845,13 @@
         <v>94</v>
       </c>
       <c r="F69" s="11">
-        <v>-39629.273571215796</v>
+        <v>-43789.252564879323</v>
       </c>
       <c r="G69" s="11">
-        <v>-20857.51240590305</v>
+        <v>-23046.975034147014</v>
       </c>
       <c r="H69" s="11">
-        <v>-61529.661597413986</v>
+        <v>-67988.576350733681</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>95</v>
@@ -1871,13 +1871,13 @@
         <v>94</v>
       </c>
       <c r="F70" s="11">
-        <v>39629.273571215796</v>
+        <v>43789.252564879323</v>
       </c>
       <c r="G70" s="11">
-        <v>20857.51240590305</v>
+        <v>23046.975034147014</v>
       </c>
       <c r="H70" s="11">
-        <v>61529.661597413986</v>
+        <v>67988.576350733681</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>95</v>
@@ -1897,13 +1897,13 @@
         <v>94</v>
       </c>
       <c r="F71" s="11">
-        <v>-39629.273571215796</v>
+        <v>-43789.252564879323</v>
       </c>
       <c r="G71" s="11">
-        <v>-20857.51240590305</v>
+        <v>-23046.975034147014</v>
       </c>
       <c r="H71" s="11">
-        <v>-61529.661597413986</v>
+        <v>-67988.576350733681</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>95</v>
@@ -1923,13 +1923,13 @@
         <v>94</v>
       </c>
       <c r="F72" s="11">
-        <v>39629.273571215796</v>
+        <v>43789.252564879323</v>
       </c>
       <c r="G72" s="11">
-        <v>20857.51240590305</v>
+        <v>23046.975034147014</v>
       </c>
       <c r="H72" s="11">
-        <v>61529.661597413986</v>
+        <v>67988.576350733681</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>95</v>
@@ -1949,13 +1949,13 @@
         <v>94</v>
       </c>
       <c r="F73" s="11">
-        <v>-39629.273571215796</v>
+        <v>-43789.252564879323</v>
       </c>
       <c r="G73" s="11">
-        <v>-20857.51240590305</v>
+        <v>-23046.975034147014</v>
       </c>
       <c r="H73" s="11">
-        <v>-61529.661597413986</v>
+        <v>-67988.576350733681</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>95</v>
@@ -1975,13 +1975,13 @@
         <v>94</v>
       </c>
       <c r="F74" s="11">
-        <v>29456.207065512233</v>
+        <v>32548.295100013511</v>
       </c>
       <c r="G74" s="11">
-        <v>15503.266876585387</v>
+        <v>17130.68163158606</v>
       </c>
       <c r="H74" s="11">
-        <v>45734.637285926881</v>
+        <v>50535.510813178873</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>95</v>
@@ -2060,13 +2060,13 @@
         <v>109</v>
       </c>
       <c r="F80" s="11">
-        <v>132552.93179480504</v>
+        <v>146467.3279500608</v>
       </c>
       <c r="G80" s="11">
-        <v>69764.700944634242</v>
+        <v>77088.067342137263</v>
       </c>
       <c r="H80" s="11">
-        <v>205805.86778667098</v>
+        <v>227409.79865930491</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -2083,13 +2083,13 @@
         <v>111</v>
       </c>
       <c r="F81" s="11">
-        <v>-29456.207065512233</v>
+        <v>-32548.295100013511</v>
       </c>
       <c r="G81" s="11">
-        <v>-15503.266876585387</v>
+        <v>-17130.68163158606</v>
       </c>
       <c r="H81" s="11">
-        <v>-45734.637285926881</v>
+        <v>-50535.510813178873</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>87</v>
@@ -2109,13 +2109,13 @@
         <v>113</v>
       </c>
       <c r="F82" s="11">
-        <v>-132552.93179480504</v>
+        <v>-146467.3279500608</v>
       </c>
       <c r="G82" s="11">
-        <v>-69764.700944634242</v>
+        <v>-77088.067342137263</v>
       </c>
       <c r="H82" s="11">
-        <v>-205805.86778667098</v>
+        <v>-227409.79865930491</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -2217,13 +2217,13 @@
         <v>117</v>
       </c>
       <c r="F98" s="11">
-        <v>-57.399460780100206</v>
+        <v>-63.424818541547189</v>
       </c>
       <c r="G98" s="11">
-        <v>-30.210242515842218</v>
+        <v>-33.381483442919574</v>
       </c>
       <c r="H98" s="11">
-        <v>-89.120215421734528</v>
+        <v>-98.475376156612725</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -2240,13 +2240,13 @@
         <v>117</v>
       </c>
       <c r="F99" s="11">
-        <v>71.187300000000022</v>
+        <v>78.66</v>
       </c>
       <c r="G99" s="11">
-        <v>37.467000000000006</v>
+        <v>41.4</v>
       </c>
       <c r="H99" s="11">
-        <v>110.52764999999999</v>
+        <v>122.13</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -2263,13 +2263,13 @@
         <v>117</v>
       </c>
       <c r="F100" s="11">
-        <v>-95.243586078853639</v>
+        <v>-105.24153157884379</v>
       </c>
       <c r="G100" s="11">
-        <v>-50.128203199396665</v>
+        <v>-55.390279778338829</v>
       </c>
       <c r="H100" s="11">
-        <v>-147.87819943822009</v>
+        <v>-163.40132534609953</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -2286,13 +2286,13 @@
         <v>117</v>
       </c>
       <c r="F101" s="11">
-        <v>-71.187300000000022</v>
+        <v>-78.66</v>
       </c>
       <c r="G101" s="11">
-        <v>-37.467000000000006</v>
+        <v>-41.4</v>
       </c>
       <c r="H101" s="11">
-        <v>-110.52764999999999</v>
+        <v>-122.13</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -2435,13 +2435,13 @@
         <v>122</v>
       </c>
       <c r="F122" s="11">
-        <v>-86.099191170150306</v>
+        <v>-95.137227812320788</v>
       </c>
       <c r="G122" s="11">
-        <v>-45.31536377376333</v>
+        <v>-50.072225164379361</v>
       </c>
       <c r="H122" s="11">
-        <v>-133.68032313260179</v>
+        <v>-147.71306423491907</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -2458,13 +2458,13 @@
         <v>122</v>
       </c>
       <c r="F123" s="11">
-        <v>85.42476000000002</v>
+        <v>94.391999999999996</v>
       </c>
       <c r="G123" s="11">
-        <v>44.960400000000007</v>
+        <v>49.68</v>
       </c>
       <c r="H123" s="11">
-        <v>132.63318000000001</v>
+        <v>146.55600000000001</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -2481,13 +2481,13 @@
         <v>122</v>
       </c>
       <c r="F124" s="11">
-        <v>-142.86537911828046</v>
+        <v>-157.8622973682657</v>
       </c>
       <c r="G124" s="11">
-        <v>-75.192304799094984</v>
+        <v>-83.085419667508248</v>
       </c>
       <c r="H124" s="11">
-        <v>-221.81729915733013</v>
+        <v>-245.1019880191493</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -2504,13 +2504,13 @@
         <v>122</v>
       </c>
       <c r="F125" s="11">
-        <v>-85.42476000000002</v>
+        <v>-94.391999999999996</v>
       </c>
       <c r="G125" s="11">
-        <v>-44.960400000000007</v>
+        <v>-49.68</v>
       </c>
       <c r="H125" s="11">
-        <v>-132.63318000000001</v>
+        <v>-146.55600000000001</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
@@ -2538,7 +2538,7 @@
         <v>126</v>
       </c>
       <c r="F136" s="11">
-        <v>2224.5318870626102</v>
+        <v>1350.4593978075457</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>127</v>
@@ -2558,7 +2558,7 @@
         <v>129</v>
       </c>
       <c r="F137" s="11">
-        <v>34.620189524667069</v>
+        <v>36.322399147289026</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
@@ -2575,7 +2575,7 @@
         <v>131</v>
       </c>
       <c r="F138" s="11">
-        <v>34.174080372133787</v>
+        <v>35.857423535501361</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
